--- a/data/МІЖНАРОДНИХ ЕКОНОМІЧНИХ ВІДНОСИН денне 44 2020.xlsx
+++ b/data/МІЖНАРОДНИХ ЕКОНОМІЧНИХ ВІДНОСИН денне 44 2020.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="69">
   <si>
     <t>МІНІСТЕРСТВО ОСВІТИ І НАУКИ УКРАЇНИ</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>Завідувач кафедри_________Е.В.Прушківська</t>
+  </si>
+  <si>
+    <t>Пропозиції щодо аудиторій</t>
   </si>
 </sst>
 </file>
@@ -430,6 +433,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -449,15 +461,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -733,7 +736,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -747,7 +750,7 @@
   <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="78" zoomScaleNormal="100" zoomScaleSheetLayoutView="78" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:J11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,33 +776,33 @@
       <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.4">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -814,18 +817,18 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:14" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -840,18 +843,18 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
     </row>
     <row r="9" spans="1:14" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -866,32 +869,32 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
+      <c r="A10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -931,9 +934,9 @@
         <v>11</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -965,7 +968,7 @@
       <c r="I14" s="8">
         <v>9</v>
       </c>
-      <c r="J14" s="29">
+      <c r="J14" s="22">
         <v>10</v>
       </c>
     </row>
@@ -995,7 +998,7 @@
       <c r="I15" s="14">
         <v>381</v>
       </c>
-      <c r="J15" s="30"/>
+      <c r="J15" s="23"/>
     </row>
     <row r="16" spans="1:14" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
@@ -1021,7 +1024,7 @@
         <v>19</v>
       </c>
       <c r="I16" s="14"/>
-      <c r="J16" s="30"/>
+      <c r="J16" s="23"/>
     </row>
     <row r="17" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
@@ -1047,7 +1050,7 @@
         <v>19</v>
       </c>
       <c r="I17" s="14"/>
-      <c r="J17" s="30"/>
+      <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
@@ -1073,7 +1076,7 @@
         <v>25</v>
       </c>
       <c r="I18" s="14"/>
-      <c r="J18" s="30"/>
+      <c r="J18" s="23"/>
     </row>
     <row r="19" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
@@ -1101,7 +1104,7 @@
       <c r="I19" s="14">
         <v>280</v>
       </c>
-      <c r="J19" s="30"/>
+      <c r="J19" s="23"/>
     </row>
     <row r="20" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
@@ -1129,7 +1132,7 @@
       <c r="I20" s="14">
         <v>381</v>
       </c>
-      <c r="J20" s="30"/>
+      <c r="J20" s="23"/>
     </row>
     <row r="21" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
@@ -1155,7 +1158,7 @@
         <v>29</v>
       </c>
       <c r="I21" s="14"/>
-      <c r="J21" s="30"/>
+      <c r="J21" s="23"/>
     </row>
     <row r="22" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
@@ -1181,7 +1184,7 @@
         <v>29</v>
       </c>
       <c r="I22" s="14"/>
-      <c r="J22" s="30"/>
+      <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
@@ -1207,7 +1210,7 @@
         <v>29</v>
       </c>
       <c r="I23" s="14"/>
-      <c r="J23" s="30"/>
+      <c r="J23" s="23"/>
     </row>
     <row r="24" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
@@ -1235,7 +1238,7 @@
       <c r="I24" s="14">
         <v>284</v>
       </c>
-      <c r="J24" s="30"/>
+      <c r="J24" s="23"/>
     </row>
     <row r="25" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
@@ -1261,7 +1264,7 @@
         <v>34</v>
       </c>
       <c r="I25" s="14"/>
-      <c r="J25" s="30"/>
+      <c r="J25" s="23"/>
     </row>
     <row r="26" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
@@ -1289,7 +1292,7 @@
       <c r="I26" s="14">
         <v>284</v>
       </c>
-      <c r="J26" s="30"/>
+      <c r="J26" s="23"/>
     </row>
     <row r="27" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
@@ -1315,7 +1318,7 @@
         <v>29</v>
       </c>
       <c r="I27" s="14"/>
-      <c r="J27" s="30"/>
+      <c r="J27" s="23"/>
     </row>
     <row r="28" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
@@ -1343,7 +1346,7 @@
       <c r="I28" s="14">
         <v>284</v>
       </c>
-      <c r="J28" s="30"/>
+      <c r="J28" s="23"/>
     </row>
     <row r="29" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
@@ -1369,7 +1372,7 @@
         <v>37</v>
       </c>
       <c r="I29" s="14"/>
-      <c r="J29" s="30"/>
+      <c r="J29" s="23"/>
     </row>
     <row r="30" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
@@ -1395,7 +1398,7 @@
         <v>37</v>
       </c>
       <c r="I30" s="14"/>
-      <c r="J30" s="30"/>
+      <c r="J30" s="23"/>
     </row>
     <row r="31" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
@@ -1421,7 +1424,7 @@
         <v>37</v>
       </c>
       <c r="I31" s="14"/>
-      <c r="J31" s="30"/>
+      <c r="J31" s="23"/>
     </row>
     <row r="32" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
@@ -1449,7 +1452,7 @@
       <c r="I32" s="14">
         <v>284</v>
       </c>
-      <c r="J32" s="30"/>
+      <c r="J32" s="23"/>
     </row>
     <row r="33" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
@@ -1475,7 +1478,7 @@
         <v>34</v>
       </c>
       <c r="I33" s="14"/>
-      <c r="J33" s="30"/>
+      <c r="J33" s="23"/>
     </row>
     <row r="34" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
@@ -1501,7 +1504,7 @@
         <v>41</v>
       </c>
       <c r="I34" s="14"/>
-      <c r="J34" s="30"/>
+      <c r="J34" s="23"/>
     </row>
     <row r="35" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
@@ -1529,7 +1532,7 @@
       <c r="I35" s="14">
         <v>284</v>
       </c>
-      <c r="J35" s="30"/>
+      <c r="J35" s="23"/>
     </row>
     <row r="36" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
@@ -1555,7 +1558,7 @@
         <v>34</v>
       </c>
       <c r="I36" s="14"/>
-      <c r="J36" s="30"/>
+      <c r="J36" s="23"/>
     </row>
     <row r="37" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
@@ -1581,7 +1584,7 @@
         <v>29</v>
       </c>
       <c r="I37" s="14"/>
-      <c r="J37" s="30"/>
+      <c r="J37" s="23"/>
     </row>
     <row r="38" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
@@ -1607,7 +1610,7 @@
         <v>19</v>
       </c>
       <c r="I38" s="14"/>
-      <c r="J38" s="30"/>
+      <c r="J38" s="23"/>
     </row>
     <row r="39" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
@@ -1633,7 +1636,7 @@
         <v>19</v>
       </c>
       <c r="I39" s="14"/>
-      <c r="J39" s="30"/>
+      <c r="J39" s="23"/>
     </row>
     <row r="40" spans="1:10" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
@@ -1659,7 +1662,7 @@
         <v>48</v>
       </c>
       <c r="I40" s="14"/>
-      <c r="J40" s="30"/>
+      <c r="J40" s="23"/>
     </row>
     <row r="41" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
@@ -1685,7 +1688,7 @@
         <v>48</v>
       </c>
       <c r="I41" s="14"/>
-      <c r="J41" s="30"/>
+      <c r="J41" s="23"/>
     </row>
     <row r="42" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
@@ -1711,7 +1714,7 @@
         <v>48</v>
       </c>
       <c r="I42" s="14"/>
-      <c r="J42" s="30"/>
+      <c r="J42" s="23"/>
     </row>
     <row r="43" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
@@ -1737,7 +1740,7 @@
         <v>48</v>
       </c>
       <c r="I43" s="14"/>
-      <c r="J43" s="30"/>
+      <c r="J43" s="23"/>
     </row>
     <row r="44" spans="1:10" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
@@ -1765,7 +1768,7 @@
       <c r="I44" s="14">
         <v>284</v>
       </c>
-      <c r="J44" s="30"/>
+      <c r="J44" s="23"/>
     </row>
     <row r="45" spans="1:10" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
@@ -1791,7 +1794,7 @@
         <v>19</v>
       </c>
       <c r="I45" s="14"/>
-      <c r="J45" s="30"/>
+      <c r="J45" s="23"/>
     </row>
     <row r="46" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
@@ -1817,7 +1820,7 @@
         <v>57</v>
       </c>
       <c r="I46" s="14"/>
-      <c r="J46" s="30"/>
+      <c r="J46" s="23"/>
     </row>
     <row r="47" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
@@ -1843,7 +1846,7 @@
         <v>57</v>
       </c>
       <c r="I47" s="14"/>
-      <c r="J47" s="30"/>
+      <c r="J47" s="23"/>
     </row>
     <row r="48" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
@@ -1871,7 +1874,7 @@
       <c r="I48" s="14">
         <v>284</v>
       </c>
-      <c r="J48" s="30"/>
+      <c r="J48" s="23"/>
     </row>
     <row r="49" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
@@ -1899,7 +1902,7 @@
       <c r="I49" s="14">
         <v>284</v>
       </c>
-      <c r="J49" s="30"/>
+      <c r="J49" s="23"/>
     </row>
     <row r="50" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
@@ -1927,7 +1930,7 @@
       <c r="I50" s="14">
         <v>284</v>
       </c>
-      <c r="J50" s="30"/>
+      <c r="J50" s="23"/>
     </row>
     <row r="51" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
@@ -1955,7 +1958,7 @@
       <c r="I51" s="14">
         <v>284</v>
       </c>
-      <c r="J51" s="30"/>
+      <c r="J51" s="23"/>
     </row>
     <row r="52" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
@@ -1983,7 +1986,7 @@
       <c r="I52" s="14">
         <v>284</v>
       </c>
-      <c r="J52" s="30"/>
+      <c r="J52" s="23"/>
     </row>
     <row r="53" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
@@ -2009,7 +2012,7 @@
         <v>34</v>
       </c>
       <c r="I53" s="14"/>
-      <c r="J53" s="30"/>
+      <c r="J53" s="23"/>
     </row>
     <row r="54" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
@@ -2037,7 +2040,7 @@
       <c r="I54" s="14">
         <v>284</v>
       </c>
-      <c r="J54" s="30"/>
+      <c r="J54" s="23"/>
     </row>
     <row r="55" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
@@ -2063,7 +2066,7 @@
         <v>37</v>
       </c>
       <c r="I55" s="14"/>
-      <c r="J55" s="30"/>
+      <c r="J55" s="23"/>
     </row>
     <row r="56" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
@@ -2091,7 +2094,7 @@
       <c r="I56" s="14">
         <v>284</v>
       </c>
-      <c r="J56" s="30"/>
+      <c r="J56" s="23"/>
     </row>
     <row r="57" spans="1:10" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
@@ -2117,7 +2120,7 @@
         <v>19</v>
       </c>
       <c r="I57" s="14"/>
-      <c r="J57" s="30"/>
+      <c r="J57" s="23"/>
     </row>
     <row r="58" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
@@ -2135,11 +2138,11 @@
       <c r="A59" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="H59" s="22" t="s">
+      <c r="H59" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
     </row>
     <row r="60" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
